--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C457"/>
+  <dimension ref="A1:C464"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5178,6 +5178,83 @@
         <v>319</v>
       </c>
       <c r="C457" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="n">
+        <v>44338</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C458" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C459" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C460" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="C461" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C462" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C463" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C464" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5255,6 +5255,83 @@
         <v>37</v>
       </c>
       <c r="C464" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C465" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C470" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="n">
+        <v>44351</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C471" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,18 +140,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C471"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="58" min="4" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="4" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,6 +5333,83 @@
       </c>
       <c r="C471" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="n">
+        <v>44352</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C478"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5410,6 +5410,83 @@
       </c>
       <c r="C478" s="2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="n">
+        <v>44359</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C480" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C481" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C483" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C484" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C485" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C485"/>
+  <dimension ref="A1:C492"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5487,6 +5487,83 @@
       </c>
       <c r="C485" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="n">
+        <v>44366</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C486" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C487" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C488" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C489" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C490" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C491" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="n">
+        <v>44372</v>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C492" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C492"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5564,6 +5564,83 @@
       </c>
       <c r="C492" s="2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="n">
+        <v>44373</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="n">
+        <v>44374</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="n">
+        <v>44375</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C495" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C496" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C497" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C498" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="n">
+        <v>44379</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C499" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C499"/>
+  <dimension ref="A1:C506"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5640,6 +5640,83 @@
         <v>27</v>
       </c>
       <c r="C499" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="n">
+        <v>44380</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C500" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="n">
+        <v>44381</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C501" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="n">
+        <v>44382</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C502" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C503" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="1" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C504" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C505" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C506" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C506"/>
+  <dimension ref="A1:C513"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5717,6 +5717,83 @@
         <v>29</v>
       </c>
       <c r="C506" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="n">
+        <v>44387</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C507" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="n">
+        <v>44388</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C508" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="n">
+        <v>44389</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C509" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C510" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C511" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C512" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="n">
+        <v>44393</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C513" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C520"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5794,6 +5794,83 @@
         <v>43</v>
       </c>
       <c r="C513" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="n">
+        <v>44394</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="n">
+        <v>44395</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="n">
+        <v>44396</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C516" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="C517" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C518" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="1" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="C519" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="n">
+        <v>44400</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C520" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C520"/>
+  <dimension ref="A1:C527"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5872,6 +5872,83 @@
       </c>
       <c r="C520" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="n">
+        <v>44401</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C521" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="n">
+        <v>44402</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C522" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="C523" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="C524" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="C525" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C526" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C527" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C527"/>
+  <dimension ref="A1:C534"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -5949,6 +5949,83 @@
       </c>
       <c r="C527" s="2" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C528" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C529" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C530" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C531" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C532" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C533" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="n">
+        <v>44414</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="C534" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C534"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -6026,6 +6026,83 @@
       </c>
       <c r="C534" s="2" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="n">
+        <v>44415</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="C535" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="n">
+        <v>44416</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="C536" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C537" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C538" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C539" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C540" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C541" s="2" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -6103,6 +6103,83 @@
       </c>
       <c r="C541" s="2" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C542" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="C543" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="C544" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>319</v>
+      </c>
+      <c r="C545" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="C546" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="n">
+        <v>44427</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C547" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="n">
+        <v>44428</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="C548" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/report/matsue/matsue-pcr-test-results.xlsx
+++ b/report/matsue/matsue-pcr-test-results.xlsx
@@ -140,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C548"/>
+  <dimension ref="A1:C555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.91"/>
@@ -6180,6 +6180,83 @@
       </c>
       <c r="C548" s="2" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="n">
+        <v>44429</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="C549" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="n">
+        <v>44430</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="C550" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="n">
+        <v>44431</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C551" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="C552" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="C553" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C554" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C555" s="2" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
